--- a/reports/corpus_1-unigram_bigram-fold-1.xlsx
+++ b/reports/corpus_1-unigram_bigram-fold-1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM5"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>,</t>
+          <t>!</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -446,24 +446,24 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>CDA</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>CDI</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>CDO</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>CDP</t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CON</t>
@@ -471,155 +471,85 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>DRB</t>
+          <t>DT</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>DS</t>
+          <t>FW</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>FRB</t>
+          <t>JJ</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>FW</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>NEG</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>JJ</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>NNP</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>NEG</t>
+          <t>PRP</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>NNC</t>
+          <t>RP</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>NNG</t>
+          <t>SYM</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>NNP</t>
+          <t>VB</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>NNU</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>PRL</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>PRN</t>
+          <t>macro avg</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>PRP</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>RP</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>TRB</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>UH</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>VBI</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>VBK</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>VBR</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>VBT</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>WDT</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>WP</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>WPRB</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>macro avg</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>weighted avg</t>
         </is>
@@ -632,118 +562,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9836065573770492</v>
+        <v>0.8</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.25</v>
+        <v>0.6875</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7704918032786885</v>
+        <v>0.8894472361809045</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.94375</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.8524590163934426</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.8125</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7708333333333334</v>
+        <v>0.9113924050632911</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1395348837209302</v>
+        <v>0.9953846153846154</v>
       </c>
       <c r="P2" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.6091954022988506</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.8703703703703703</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9701492537313433</v>
+        <v>0.5338645418326693</v>
       </c>
       <c r="S2" t="n">
-        <v>0.125</v>
+        <v>0.6037735849056604</v>
       </c>
       <c r="T2" t="n">
-        <v>0.125</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1714285714285714</v>
+        <v>0.3515037593984963</v>
       </c>
       <c r="V2" t="n">
-        <v>0.16</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1</v>
+        <v>0.7297734627831716</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>0.6590316435004656</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.6777777777777778</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.34375</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.6444444444444445</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.5909090909090909</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.1397849462365591</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0.3684210526315789</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0.5402081362346263</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0.3550797317579504</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0.8440278188291301</v>
+        <v>0.8556587038045089</v>
       </c>
     </row>
     <row r="3">
@@ -759,112 +647,70 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9791666666666666</v>
+        <v>0.9725274725274725</v>
       </c>
       <c r="I3" t="n">
-        <v>0.75</v>
+        <v>0.993421052631579</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0.9629629629629629</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.8089887640449438</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9736842105263158</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.4715743440233236</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0.9814814814814815</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9545454545454546</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1214953271028037</v>
+        <v>0.7165775401069518</v>
       </c>
       <c r="S3" t="n">
-        <v>0.625</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="T3" t="n">
         <v>1</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>0.9689119170984456</v>
       </c>
       <c r="V3" t="n">
         <v>1</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>0.7297734627831716</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>0.8804640965470474</v>
       </c>
       <c r="Y3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0.9666666666666667</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0.5402081362346263</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0.6813356800485252</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0.5402081362346263</v>
+        <v>0.7297734627831716</v>
       </c>
     </row>
     <row r="4">
@@ -874,118 +720,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9917355371900827</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4</v>
+        <v>0.7333333333333334</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8623853211009173</v>
+        <v>0.9291338582677166</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4</v>
+        <v>0.967948717948718</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9411764705882353</v>
+        <v>0.9043478260869565</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.5017421602787457</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8604651162790697</v>
+        <v>0.9536423841059603</v>
       </c>
       <c r="O4" t="n">
-        <v>0.24</v>
+        <v>0.6399604352126607</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.75177304964539</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.875</v>
+        <v>0.9306930693069307</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2159468438538206</v>
+        <v>0.6118721461187214</v>
       </c>
       <c r="S4" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.6981818181818181</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="U4" t="n">
-        <v>0.2926829268292683</v>
+        <v>0.5158620689655172</v>
       </c>
       <c r="V4" t="n">
-        <v>0.2758620689655173</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.7297734627831716</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>0.7196835025076181</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.8079470198675497</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.4782608695652174</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.7733333333333334</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.7428571428571429</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0.3333333333333334</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0.2452830188679245</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0.5384615384615384</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0.6666666666666667</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>0.5402081362346263</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>0.4120125031942863</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0.500765306581077</v>
+        <v>0.7358377111870241</v>
       </c>
     </row>
     <row r="5">
@@ -995,118 +799,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>281</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H5" t="n">
-        <v>48</v>
+        <v>182</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>152</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="N5" t="n">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="O5" t="n">
-        <v>7</v>
+        <v>1372</v>
       </c>
       <c r="P5" t="n">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="Q5" t="n">
-        <v>22</v>
+        <v>188</v>
       </c>
       <c r="R5" t="n">
-        <v>535</v>
+        <v>187</v>
       </c>
       <c r="S5" t="n">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U5" t="n">
-        <v>6</v>
+        <v>193</v>
       </c>
       <c r="V5" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>0.7297734627831716</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>3090</v>
       </c>
       <c r="Y5" t="n">
-        <v>61</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>28</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0.5402081362346263</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>1057</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>1057</v>
+        <v>3090</v>
       </c>
     </row>
   </sheetData>

--- a/reports/corpus_1-unigram_bigram-fold-1.xlsx
+++ b/reports/corpus_1-unigram_bigram-fold-1.xlsx
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -571,67 +571,67 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6875</v>
+        <v>0.875</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8894472361809045</v>
+        <v>0.9698492462311558</v>
       </c>
       <c r="I2" t="n">
-        <v>0.94375</v>
+        <v>0.975</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K2" t="n">
         <v>0.8524590163934426</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.601010101010101</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8125</v>
+        <v>0.84375</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9113924050632911</v>
+        <v>0.9746835443037974</v>
       </c>
       <c r="O2" t="n">
         <v>0.9953846153846154</v>
       </c>
       <c r="P2" t="n">
-        <v>0.6091954022988506</v>
+        <v>0.7126436781609196</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.8703703703703703</v>
+        <v>0.9398148148148148</v>
       </c>
       <c r="R2" t="n">
-        <v>0.5338645418326693</v>
+        <v>0.7529880478087649</v>
       </c>
       <c r="S2" t="n">
-        <v>0.6037735849056604</v>
+        <v>0.7232704402515723</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3515037593984963</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="V2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="W2" t="n">
-        <v>0.7297734627831716</v>
+        <v>0.8330097087378641</v>
       </c>
       <c r="X2" t="n">
-        <v>0.6590316435004656</v>
+        <v>0.805952844202488</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.8556587038045089</v>
+        <v>0.8804906690602705</v>
       </c>
     </row>
     <row r="3">
@@ -650,28 +650,28 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7857142857142857</v>
+        <v>0.875</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9725274725274725</v>
+        <v>0.965</v>
       </c>
       <c r="I3" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9936305732484076</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
         <v>0.9629629629629629</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8089887640449438</v>
+        <v>0.8623188405797102</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
@@ -680,37 +680,37 @@
         <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4715743440233236</v>
+        <v>0.6203259827420902</v>
       </c>
       <c r="P3" t="n">
-        <v>0.9814814814814815</v>
+        <v>0.9841269841269841</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>0.7165775401069518</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="S3" t="n">
-        <v>0.8275862068965517</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="T3" t="n">
         <v>1</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9689119170984456</v>
+        <v>0.977491961414791</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="W3" t="n">
-        <v>0.7297734627831716</v>
+        <v>0.8330097087378641</v>
       </c>
       <c r="X3" t="n">
-        <v>0.8804640965470474</v>
+        <v>0.9417253376571602</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.7297734627831716</v>
+        <v>0.8330097087378641</v>
       </c>
     </row>
     <row r="4">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.888888888888889</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -729,67 +729,67 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6896551724137931</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7333333333333334</v>
+        <v>0.875</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9291338582677166</v>
+        <v>0.9674185463659147</v>
       </c>
       <c r="I4" t="n">
-        <v>0.967948717948718</v>
+        <v>0.9842271293375395</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K4" t="n">
         <v>0.9043478260869565</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5017421602787457</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="M4" t="n">
-        <v>0.896551724137931</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9536423841059603</v>
+        <v>0.9871794871794872</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6399604352126607</v>
+        <v>0.7643236857649145</v>
       </c>
       <c r="P4" t="n">
-        <v>0.75177304964539</v>
+        <v>0.8266666666666668</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.9306930693069307</v>
+        <v>0.9689737470167064</v>
       </c>
       <c r="R4" t="n">
-        <v>0.6118721461187214</v>
+        <v>0.7651821862348178</v>
       </c>
       <c r="S4" t="n">
-        <v>0.6981818181818181</v>
+        <v>0.7744107744107744</v>
       </c>
       <c r="T4" t="n">
-        <v>0.6</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="U4" t="n">
-        <v>0.5158620689655172</v>
+        <v>0.7212336892052195</v>
       </c>
       <c r="V4" t="n">
-        <v>0.717948717948718</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="W4" t="n">
-        <v>0.7297734627831716</v>
+        <v>0.8330097087378641</v>
       </c>
       <c r="X4" t="n">
-        <v>0.7196835025076181</v>
+        <v>0.8446917515567633</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.7358377111870241</v>
+        <v>0.8344162391664062</v>
       </c>
     </row>
     <row r="5">
@@ -799,7 +799,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>281</v>
@@ -808,61 +808,61 @@
         <v>14</v>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H5" t="n">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="I5" t="n">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>108</v>
       </c>
       <c r="L5" t="n">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="M5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N5" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="O5" t="n">
-        <v>1372</v>
+        <v>1043</v>
       </c>
       <c r="P5" t="n">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="Q5" t="n">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="R5" t="n">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="S5" t="n">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="T5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U5" t="n">
-        <v>193</v>
+        <v>311</v>
       </c>
       <c r="V5" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="W5" t="n">
-        <v>0.7297734627831716</v>
+        <v>0.8330097087378641</v>
       </c>
       <c r="X5" t="n">
         <v>3090</v>
